--- a/output/fit_clients/fit_round_339.xlsx
+++ b/output/fit_clients/fit_round_339.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2331873488.237289</v>
+        <v>1740298017.752536</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09728407245310099</v>
+        <v>0.09524898207677401</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03891303525496111</v>
+        <v>0.03858060182178516</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1165936784.39335</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2041503732.961801</v>
+        <v>1691811316.281842</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1704212920676478</v>
+        <v>0.1613222981483474</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04104289742572059</v>
+        <v>0.04236641638190477</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1020751912.979001</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4165269699.857731</v>
+        <v>5093211458.02989</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1444731024468474</v>
+        <v>0.1344110685033555</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02482541300538652</v>
+        <v>0.03591736088945111</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>122</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2082634875.815301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4099930317.153173</v>
+        <v>3715754995.451505</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08491072172832539</v>
+        <v>0.08060216498817256</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04915251606346129</v>
+        <v>0.03641292020159329</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>126</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2049965155.671433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2423878969.182141</v>
+        <v>2047187578.913014</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1043543892153797</v>
+        <v>0.09590089844370213</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04519554337370999</v>
+        <v>0.0428028114193189</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1211939468.319839</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2804980483.366556</v>
+        <v>3133564563.933494</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09791989963309902</v>
+        <v>0.08738857880957125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0415409939149361</v>
+        <v>0.03595640576725858</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>103</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1402490225.364869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3814067102.554774</v>
+        <v>2846701876.987161</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1870033339591594</v>
+        <v>0.1908286553312069</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02999544385487314</v>
+        <v>0.02623754152788842</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>108</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1907033692.01969</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1529830063.248833</v>
+        <v>1836542260.51452</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1556533209314213</v>
+        <v>0.1589822835667309</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02583514992466846</v>
+        <v>0.02855923365205291</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>764915123.4796318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3763539461.711032</v>
+        <v>4001240368.800871</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2024845032379155</v>
+        <v>0.1992432494085971</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04557691678591939</v>
+        <v>0.04662053810363499</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>143</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1881769734.47273</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3372549851.733114</v>
+        <v>3371615056.501725</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1854993822150726</v>
+        <v>0.1819626509216363</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03557709068897808</v>
+        <v>0.03686101483796326</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>140</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1686274894.839049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3167499763.922551</v>
+        <v>3255818542.978304</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1356870204862114</v>
+        <v>0.1583388873626976</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04500843301297464</v>
+        <v>0.04482553029124231</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>116</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1583749915.334849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4648479825.108577</v>
+        <v>3335995556.520403</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07140040984934208</v>
+        <v>0.09366087388264453</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03001795301377154</v>
+        <v>0.02419529152200657</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>114</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2324239934.551876</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2625928542.505008</v>
+        <v>3358609649.897779</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1282701101990209</v>
+        <v>0.135916586605024</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03988757260288803</v>
+        <v>0.03450328252250175</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1312964332.784024</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1713968805.34852</v>
+        <v>1556038194.936043</v>
       </c>
       <c r="F15" t="n">
-        <v>0.069557250863215</v>
+        <v>0.08923016091784622</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03407810693019562</v>
+        <v>0.04376689658168863</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>856984536.6916678</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2709511150.902162</v>
+        <v>1753516528.07938</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08060257887328595</v>
+        <v>0.09504645043627534</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04301320307111477</v>
+        <v>0.04153874453253759</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>66</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1354755587.555758</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4888282187.859271</v>
+        <v>4840589223.615902</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1143440384555096</v>
+        <v>0.1666928057428359</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04148297683658318</v>
+        <v>0.03986435921279098</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>99</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2444141084.649722</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2982056050.133657</v>
+        <v>2953811077.039269</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1638674474353161</v>
+        <v>0.1382637932646767</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03397159262756611</v>
+        <v>0.02293938353998128</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>111</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1491028056.685914</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1086976456.001375</v>
+        <v>992160427.3321029</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1576002622537053</v>
+        <v>0.1378094776505481</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02745056793780117</v>
+        <v>0.02582193619252538</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>543488278.406459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2120034304.767881</v>
+        <v>2724592452.394347</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1162215555818902</v>
+        <v>0.1503508806500529</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0256245824818408</v>
+        <v>0.0215668225038011</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1060017165.951719</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2095128763.526494</v>
+        <v>2505026088.315648</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0658855951279709</v>
+        <v>0.08264676346975573</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03548132106349372</v>
+        <v>0.0360399187358354</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1047564408.634458</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3553591328.86762</v>
+        <v>3696953982.281096</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1010147722442682</v>
+        <v>0.1073510890959041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03907683420447842</v>
+        <v>0.04798585764865438</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>94</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1776795692.823874</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1002321711.832237</v>
+        <v>954491258.3836944</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1150840022529274</v>
+        <v>0.1156527805990621</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03905099149450728</v>
+        <v>0.05139099483567114</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>501160925.7070687</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4052067629.80089</v>
+        <v>3167340526.804338</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1170640730234591</v>
+        <v>0.1152121881724875</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03260598860801622</v>
+        <v>0.03021020306453966</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>99</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2026033779.395849</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1423769648.918408</v>
+        <v>1206413467.870856</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1073822563618077</v>
+        <v>0.1222562575617899</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02513652997444605</v>
+        <v>0.02448627956391441</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>711884790.9475037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1075142718.101223</v>
+        <v>1077078106.04584</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08312539435611684</v>
+        <v>0.1030891469824519</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02454729710780175</v>
+        <v>0.03365827968555627</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>537571349.5827885</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4566788233.688532</v>
+        <v>4485458098.413794</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1362318063854195</v>
+        <v>0.1501907141349733</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02061227350215933</v>
+        <v>0.02488019683438834</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2283394098.875807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3732519967.186192</v>
+        <v>3056587129.693556</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09709720053216082</v>
+        <v>0.09486660535043592</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03207592863280084</v>
+        <v>0.04362385562295379</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>109</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1866260058.43731</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3747484378.933194</v>
+        <v>5633992456.15211</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09887650109982447</v>
+        <v>0.1345941507521926</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04511320966634706</v>
+        <v>0.0283307755951881</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>150</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1873742223.786121</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1863455165.154703</v>
+        <v>2077329699.297616</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1038679662039117</v>
+        <v>0.09822634337880434</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03760829468823599</v>
+        <v>0.03480783772683204</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>931727604.5249984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1018018457.661913</v>
+        <v>1222014790.677604</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07177531234591986</v>
+        <v>0.09992537121254272</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04108965216060243</v>
+        <v>0.04482589482550819</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>509009223.1424334</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1827932436.371854</v>
+        <v>1617378969.098689</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09091159724512012</v>
+        <v>0.09709746283411563</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03744229877854728</v>
+        <v>0.03730387731429578</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>913966354.4706384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2504502876.019288</v>
+        <v>3110947360.316324</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1411297308815239</v>
+        <v>0.1723480911652017</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05755296676982966</v>
+        <v>0.03924327672142157</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>101</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1252251475.826781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1083678334.387265</v>
+        <v>1040975890.952087</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07978345885569904</v>
+        <v>0.07764106174430502</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02759426245230307</v>
+        <v>0.01803254746248537</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>541839191.374681</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1070203690.640733</v>
+        <v>1210956460.320792</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07412611189598424</v>
+        <v>0.09440374390810354</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02908858455423013</v>
+        <v>0.04415206802152654</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>535101848.5144765</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2679036438.301131</v>
+        <v>2783064381.79676</v>
       </c>
       <c r="F36" t="n">
-        <v>0.133759159645911</v>
+        <v>0.1380963617193084</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02450672038444907</v>
+        <v>0.02510995224344863</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>85</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1339518226.800812</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2145552811.332052</v>
+        <v>2509272979.988335</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1109342389339895</v>
+        <v>0.0844162515125082</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03135912660146402</v>
+        <v>0.03483048521774502</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1072776452.961377</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1878544373.962777</v>
+        <v>1542528009.597358</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09875906203985901</v>
+        <v>0.1150744092205941</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03977444450160124</v>
+        <v>0.03195095243382575</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>939272182.7764392</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1392242996.998732</v>
+        <v>1552584103.267373</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1832196263777506</v>
+        <v>0.1550943817239943</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02952779030881595</v>
+        <v>0.02374747736958828</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>696121585.2879633</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1288747684.44603</v>
+        <v>1746709667.783365</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1320800899514996</v>
+        <v>0.1344178509315728</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03929674354417959</v>
+        <v>0.03758346870301704</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>644373861.3122462</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1905486424.224751</v>
+        <v>2219607997.445096</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1115835433163954</v>
+        <v>0.152280569672222</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03940086959527495</v>
+        <v>0.03740293890151986</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>86</v>
-      </c>
-      <c r="J41" t="n">
-        <v>952743295.6418098</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2754765517.889645</v>
+        <v>3965493284.257439</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09710771075037859</v>
+        <v>0.1038020174565753</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0380826303898179</v>
+        <v>0.03686863735554746</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>114</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1377382702.498245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2333295289.025173</v>
+        <v>2770371838.485233</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1734070139125632</v>
+        <v>0.1429472756935338</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02541729751990264</v>
+        <v>0.0175354743054463</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>122</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1166647709.945328</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2111439051.195325</v>
+        <v>2236293426.74427</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06462046798292377</v>
+        <v>0.08942947700638888</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03656377052204074</v>
+        <v>0.03438545128994942</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1055719654.169976</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1815026430.088803</v>
+        <v>1643907036.882774</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1543804145030217</v>
+        <v>0.1203045881871811</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0395344425525721</v>
+        <v>0.05069534327870803</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>907513187.278273</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5532189150.516873</v>
+        <v>3526783018.647775</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1485090490574879</v>
+        <v>0.1543469886423167</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05938376172539608</v>
+        <v>0.04580811177225172</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>120</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2766094632.519455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3383587830.765837</v>
+        <v>3507804057.192358</v>
       </c>
       <c r="F47" t="n">
-        <v>0.18918216532628</v>
+        <v>0.1678050061543055</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05263873731120224</v>
+        <v>0.04219997568005156</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>91</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1691793879.591279</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4237811487.668809</v>
+        <v>3026253198.826727</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08177376430963723</v>
+        <v>0.1028995003000418</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02512545238688741</v>
+        <v>0.03251469080642792</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2118905764.391033</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1573415811.31914</v>
+        <v>1359118853.262114</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1820546567196941</v>
+        <v>0.1655875549640362</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04405900729698625</v>
+        <v>0.03092906108551296</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>786707926.2683387</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4174129206.713406</v>
+        <v>2860001278.189193</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1698475821042556</v>
+        <v>0.1676168019929352</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0450389269007828</v>
+        <v>0.05156831711103255</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>116</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2087064579.679743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1135057881.064184</v>
+        <v>998797581.0614892</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1618930101489449</v>
+        <v>0.1757470651414506</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03524785241140755</v>
+        <v>0.03966865891685912</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>567529002.6229399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4719009051.568496</v>
+        <v>4472552910.476113</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1102656663009263</v>
+        <v>0.1253071524010692</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04901084446437498</v>
+        <v>0.06194938607029039</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>140</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2359504539.951522</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3675916204.04514</v>
+        <v>3008131697.725081</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1948544455282148</v>
+        <v>0.1397675691145209</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03462173058521976</v>
+        <v>0.02597180976659673</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>96</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1837958087.762273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4367575047.775232</v>
+        <v>4431006605.075989</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1672529625847919</v>
+        <v>0.1284527076945787</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03518554649271406</v>
+        <v>0.04453076134419909</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>110</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2183787616.844704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3401792185.782522</v>
+        <v>3905352548.992383</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1681598112391305</v>
+        <v>0.1777244559541621</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02071236454479933</v>
+        <v>0.02451851837900634</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1700896041.397553</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1883864630.950686</v>
+        <v>1492099271.676207</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1357132768792375</v>
+        <v>0.1388762305349807</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03639537542979089</v>
+        <v>0.04529845327252852</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>941932300.8322927</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3067777067.018518</v>
+        <v>4235441540.707176</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1456322839272996</v>
+        <v>0.1430831662764683</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02726829833439253</v>
+        <v>0.02249321522576603</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>108</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1533888543.610392</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1491363035.076552</v>
+        <v>1611193991.804902</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1874316466108384</v>
+        <v>0.1522200220323045</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02498120581178455</v>
+        <v>0.03934392031316615</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>745681549.4610363</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3658342906.940579</v>
+        <v>4676600092.536683</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1016580000200408</v>
+        <v>0.1042586580302591</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03749072762717569</v>
+        <v>0.04643318827204751</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1829171445.904371</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3279913974.626308</v>
+        <v>3257582924.741947</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1727567107748964</v>
+        <v>0.1306579258005058</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02496991558378046</v>
+        <v>0.02389008137193198</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>105</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1639957087.031572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2132026730.045749</v>
+        <v>3069704756.289949</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1422110531091369</v>
+        <v>0.1498086236635978</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03209374959687095</v>
+        <v>0.02753641689504479</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>115</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1066013427.347697</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1416080061.26424</v>
+        <v>1907274244.410527</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1232457718774766</v>
+        <v>0.1567804057999805</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04324198255089304</v>
+        <v>0.03441311253068082</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>708040001.1243144</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4389186267.906351</v>
+        <v>5618881574.055977</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09425868724922744</v>
+        <v>0.08919189722442604</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04447417536062523</v>
+        <v>0.02890640464066282</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2194593179.000607</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3662819093.675105</v>
+        <v>3966641434.511872</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1712023502985178</v>
+        <v>0.1841161737258909</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02952068479519098</v>
+        <v>0.02314978959883624</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>105</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1831409558.991534</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5024172609.072811</v>
+        <v>3985226802.000696</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1686246879063751</v>
+        <v>0.1706331223069178</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02156418798220307</v>
+        <v>0.03161376577096357</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>121</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2512086262.016052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5015578348.381865</v>
+        <v>4850395036.908218</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1497721369758217</v>
+        <v>0.1287088555741211</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04059585564457095</v>
+        <v>0.04506833543092165</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>99</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2507789202.175308</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3004089398.658727</v>
+        <v>2160374998.26478</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0907857902616334</v>
+        <v>0.06916774939434604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0447654028908968</v>
+        <v>0.03771266589867327</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>108</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1502044717.27583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5047592186.691671</v>
+        <v>4616756305.473023</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1196896902598009</v>
+        <v>0.1075353596447845</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05159266326299069</v>
+        <v>0.03716798489027968</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>111</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2523796152.620235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1600683015.766163</v>
+        <v>2006221196.169956</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1618306990658667</v>
+        <v>0.1292536199251835</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04107831704245861</v>
+        <v>0.03803386654160181</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>800341461.1922408</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3276685860.95655</v>
+        <v>3219731844.700839</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09463160868335525</v>
+        <v>0.0731082704637052</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04925005092148741</v>
+        <v>0.04676549377630221</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>97</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1638342925.492518</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4381394656.581182</v>
+        <v>5616571883.571888</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1718514587802303</v>
+        <v>0.1612722621255087</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03220235278382594</v>
+        <v>0.02506909008409288</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>123</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2190697387.856173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2024234756.73642</v>
+        <v>2114117508.269703</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08109847890928727</v>
+        <v>0.08817788712573522</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05149030445431185</v>
+        <v>0.0414533298703885</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1012117320.821358</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3207960208.395421</v>
+        <v>3271202771.823011</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1088613913806702</v>
+        <v>0.1000617066722839</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03993644483613869</v>
+        <v>0.04231348730478655</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>129</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1603980081.146151</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3050595203.874727</v>
+        <v>3591929482.025635</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1198570302823823</v>
+        <v>0.1391714691402014</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0283321492357054</v>
+        <v>0.03052907069032347</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>116</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1525297662.965774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1838642891.782686</v>
+        <v>2281550422.763227</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1422931091864491</v>
+        <v>0.1183675967471149</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03777535458126986</v>
+        <v>0.02349092905393798</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>919321425.1597171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5058123389.208341</v>
+        <v>5079664196.719488</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1231801840687134</v>
+        <v>0.09932313180619551</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02204372102891593</v>
+        <v>0.03030879156687652</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2529061723.720362</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1960862462.706853</v>
+        <v>1891253054.031843</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1726951234594024</v>
+        <v>0.1517520459921494</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02063422311866739</v>
+        <v>0.0268108294856107</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>980431287.079331</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3058304085.060133</v>
+        <v>3697696008.328356</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09996234934982372</v>
+        <v>0.1049775162707972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03867476138331979</v>
+        <v>0.04467554681267495</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>118</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1529152075.657664</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1466645234.275163</v>
+        <v>1767044449.289074</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1115451018978789</v>
+        <v>0.1729959731398416</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03237887273172868</v>
+        <v>0.03963399326857762</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>733322645.4871076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4844057424.748963</v>
+        <v>4029677021.22959</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07163181251441901</v>
+        <v>0.1046349949602797</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02956950642032304</v>
+        <v>0.03518751918675445</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>72</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2422028753.8305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4969240348.305878</v>
+        <v>4620491331.843696</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09752275477861921</v>
+        <v>0.1238642573020364</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02879861623546382</v>
+        <v>0.02118138340797241</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2484620173.334049</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4680408336.952676</v>
+        <v>4362944912.244692</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2117752573158393</v>
+        <v>0.1727641596211889</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02385483181657531</v>
+        <v>0.02399341354445903</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>118</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2340204170.267433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1781607193.413876</v>
+        <v>1724472406.515917</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1308663996582295</v>
+        <v>0.1231896388834517</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03843586836670251</v>
+        <v>0.03497850017831169</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>890803554.8627101</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1644969355.633043</v>
+        <v>2389525610.15518</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08217401565001924</v>
+        <v>0.07513717257037611</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0372890281258066</v>
+        <v>0.03377873063925318</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>822484734.8107355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2616571350.301515</v>
+        <v>2976098044.593137</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1376746933657149</v>
+        <v>0.1521739242550472</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05623664430180733</v>
+        <v>0.05318931675416594</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>127</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1308285693.000038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2526064782.2459</v>
+        <v>2297556099.882776</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1141097742772205</v>
+        <v>0.1320223233750568</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01705484622064028</v>
+        <v>0.02723531553883328</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1263032491.920252</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1324270850.999971</v>
+        <v>1128090237.202202</v>
       </c>
       <c r="F87" t="n">
-        <v>0.142708600264801</v>
+        <v>0.1763387663765496</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03117492584817435</v>
+        <v>0.02778323628888638</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>662135512.9448514</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3585420727.84226</v>
+        <v>3478746589.33298</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1238787116941005</v>
+        <v>0.1647621433351246</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03023345068226616</v>
+        <v>0.02619861311227427</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>134</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1792710452.229591</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2441217689.981723</v>
+        <v>2522858449.983869</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1374341556997317</v>
+        <v>0.1096738295006401</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03635116290982088</v>
+        <v>0.04146403762268184</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>115</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1220608924.055918</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1613756160.268974</v>
+        <v>1801831003.631655</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1076678000379949</v>
+        <v>0.1215095162201502</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05082135148358799</v>
+        <v>0.0499244149525143</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>806878079.6648445</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1307408922.156621</v>
+        <v>1717489316.011618</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1647511789574582</v>
+        <v>0.1202576488364133</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04115600364487752</v>
+        <v>0.05741581121664075</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>653704525.6577729</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2041682138.540639</v>
+        <v>2568698708.476268</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09430016221027143</v>
+        <v>0.107529504213223</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03089019351597628</v>
+        <v>0.0449778821006847</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>92</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1020841018.584431</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4698744447.850235</v>
+        <v>3718593728.408522</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09151155112625041</v>
+        <v>0.1130344771212525</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04262149496386298</v>
+        <v>0.05134605512578595</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2349372179.381216</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1695289536.06993</v>
+        <v>2187386983.918375</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1043734868830384</v>
+        <v>0.1307809449337124</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03209132930501804</v>
+        <v>0.04245651911910481</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>847644726.7018852</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2702464070.938143</v>
+        <v>3181075202.071815</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1134773949625782</v>
+        <v>0.1278611689217575</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04876550502848614</v>
+        <v>0.04208130223589662</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>83</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1351232056.849286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1607231865.561849</v>
+        <v>1693262099.844501</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1029956088239554</v>
+        <v>0.1217186657332446</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04287657436453255</v>
+        <v>0.02944568079927895</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>803615961.6943967</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4856143153.860975</v>
+        <v>3450470574.90418</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1669039339274696</v>
+        <v>0.1233386208418886</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02453678815583372</v>
+        <v>0.02201514202343718</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>108</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2428071702.175513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2462601813.81579</v>
+        <v>3148689880.854802</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09258656573192227</v>
+        <v>0.1112284034875734</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02983767731121655</v>
+        <v>0.02679224131063218</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1231300855.196919</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2193995824.976898</v>
+        <v>2626855449.212173</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1260394009025314</v>
+        <v>0.09635152556331641</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03005859056903769</v>
+        <v>0.03279807160971913</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>108</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1096997840.025679</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2904600100.939212</v>
+        <v>3612339480.466078</v>
       </c>
       <c r="F100" t="n">
-        <v>0.160253608928938</v>
+        <v>0.132999755999641</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0259597359835007</v>
+        <v>0.01994128719370429</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1452300033.699836</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3591857089.247442</v>
+        <v>3364677662.871894</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1973768682513851</v>
+        <v>0.1943946192500666</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05165225392339667</v>
+        <v>0.03855872765833265</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>136</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1795928711.945533</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_339.xlsx
+++ b/output/fit_clients/fit_round_339.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1740298017.752536</v>
+        <v>2334609505.62018</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09524898207677401</v>
+        <v>0.0830678978202917</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03858060182178516</v>
+        <v>0.0301986457926161</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1691811316.281842</v>
+        <v>2204738856.031466</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1613222981483474</v>
+        <v>0.1182854716029414</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04236641638190477</v>
+        <v>0.03192850098857218</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5093211458.02989</v>
+        <v>3539343276.940156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1344110685033555</v>
+        <v>0.1457089011509069</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03591736088945111</v>
+        <v>0.02847145142258392</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3715754995.451505</v>
+        <v>4011921533.298161</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08060216498817256</v>
+        <v>0.07051412167699041</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03641292020159329</v>
+        <v>0.03810368440364035</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2047187578.913014</v>
+        <v>2621872966.876762</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09590089844370213</v>
+        <v>0.1413700352872163</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0428028114193189</v>
+        <v>0.05474228910780547</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3133564563.933494</v>
+        <v>2223029230.924602</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08738857880957125</v>
+        <v>0.0805482184779668</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03595640576725858</v>
+        <v>0.04710073107265379</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2846701876.987161</v>
+        <v>3220222951.837658</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1908286553312069</v>
+        <v>0.1945790997046397</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02623754152788842</v>
+        <v>0.0253299672992176</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1836542260.51452</v>
+        <v>2171689451.655943</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1589822835667309</v>
+        <v>0.1216385434785682</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02855923365205291</v>
+        <v>0.03114578403916602</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4001240368.800871</v>
+        <v>5533999375.75209</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1992432494085971</v>
+        <v>0.2070406961884496</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04662053810363499</v>
+        <v>0.04712156527537628</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3371615056.501725</v>
+        <v>3648588075.761231</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1819626509216363</v>
+        <v>0.1205969607034702</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03686101483796326</v>
+        <v>0.04012244887495464</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3255818542.978304</v>
+        <v>3242270491.151324</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1583388873626976</v>
+        <v>0.1543040940235013</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04482553029124231</v>
+        <v>0.04822536914543807</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3335995556.520403</v>
+        <v>4374898154.289593</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09366087388264453</v>
+        <v>0.07186213334057122</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02419529152200657</v>
+        <v>0.02693081092712271</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3358609649.897779</v>
+        <v>2816466756.384478</v>
       </c>
       <c r="F14" t="n">
-        <v>0.135916586605024</v>
+        <v>0.1606885765515706</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03450328252250175</v>
+        <v>0.03003291008210117</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1556038194.936043</v>
+        <v>1242423931.741711</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08923016091784622</v>
+        <v>0.09623081715788419</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04376689658168863</v>
+        <v>0.03332376280875971</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1753516528.07938</v>
+        <v>2848198049.975084</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09504645043627534</v>
+        <v>0.1166157308121138</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04153874453253759</v>
+        <v>0.04788706695907714</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4840589223.615902</v>
+        <v>4906796659.890834</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1666928057428359</v>
+        <v>0.1417018112695268</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03986435921279098</v>
+        <v>0.03900657930339604</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2953811077.039269</v>
+        <v>2740505367.851916</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1382637932646767</v>
+        <v>0.1579450686710633</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02293938353998128</v>
+        <v>0.027126148398711</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>992160427.3321029</v>
+        <v>1064359263.247112</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1378094776505481</v>
+        <v>0.1333295173061224</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02582193619252538</v>
+        <v>0.01837592472293867</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2724592452.394347</v>
+        <v>2400600569.026504</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1503508806500529</v>
+        <v>0.1548995232289324</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0215668225038011</v>
+        <v>0.02049954359416073</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2505026088.315648</v>
+        <v>2257459265.31048</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08264676346975573</v>
+        <v>0.07845413474561078</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0360399187358354</v>
+        <v>0.0318495240090713</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3696953982.281096</v>
+        <v>3391446926.461792</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1073510890959041</v>
+        <v>0.1274658977690229</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04798585764865438</v>
+        <v>0.05316455730263967</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>954491258.3836944</v>
+        <v>1291489799.849019</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1156527805990621</v>
+        <v>0.1163432913261464</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05139099483567114</v>
+        <v>0.03844975988908832</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3167340526.804338</v>
+        <v>3226228349.658212</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1152121881724875</v>
+        <v>0.1334269997766263</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03021020306453966</v>
+        <v>0.0371797983682231</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1206413467.870856</v>
+        <v>1359773762.311117</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1222562575617899</v>
+        <v>0.1100995784288174</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02448627956391441</v>
+        <v>0.01893247993007136</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1077078106.04584</v>
+        <v>1149821163.045744</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1030891469824519</v>
+        <v>0.1186133751532062</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03365827968555627</v>
+        <v>0.03866295218028004</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4485458098.413794</v>
+        <v>4587373918.441496</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1501907141349733</v>
+        <v>0.1286050026100744</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02488019683438834</v>
+        <v>0.01880596242834738</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3056587129.693556</v>
+        <v>2400884243.96496</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09486660535043592</v>
+        <v>0.150912763964111</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04362385562295379</v>
+        <v>0.04769721260904553</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5633992456.15211</v>
+        <v>5473460282.286634</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1345941507521926</v>
+        <v>0.1018061007387842</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0283307755951881</v>
+        <v>0.04220753249872494</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2077329699.297616</v>
+        <v>2258343005.898493</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09822634337880434</v>
+        <v>0.09218289723995866</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03480783772683204</v>
+        <v>0.0348222263902002</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1222014790.677604</v>
+        <v>1130737686.571179</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09992537121254272</v>
+        <v>0.06881048026283743</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04482589482550819</v>
+        <v>0.03761671106905729</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1617378969.098689</v>
+        <v>1243540742.141323</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09709746283411563</v>
+        <v>0.07426511758754734</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03730387731429578</v>
+        <v>0.03128100133585628</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3110947360.316324</v>
+        <v>2919938528.777991</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1723480911652017</v>
+        <v>0.190390230686546</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03924327672142157</v>
+        <v>0.04399653234723178</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1040975890.952087</v>
+        <v>1519052679.023659</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07764106174430502</v>
+        <v>0.12087648838227</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01803254746248537</v>
+        <v>0.02725940916593907</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1210956460.320792</v>
+        <v>1214008051.099165</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09440374390810354</v>
+        <v>0.102973166394837</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04415206802152654</v>
+        <v>0.02811990445893582</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2783064381.79676</v>
+        <v>2569227001.977861</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1380963617193084</v>
+        <v>0.1491218188148956</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02510995224344863</v>
+        <v>0.02773291345789683</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2509272979.988335</v>
+        <v>2569702789.099102</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0844162515125082</v>
+        <v>0.06760397071310997</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03483048521774502</v>
+        <v>0.04189401667337698</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1542528009.597358</v>
+        <v>1690579882.698119</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1150744092205941</v>
+        <v>0.09993272701207194</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03195095243382575</v>
+        <v>0.03221949072277235</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1552584103.267373</v>
+        <v>1863941103.160622</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1550943817239943</v>
+        <v>0.1332539546892773</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02374747736958828</v>
+        <v>0.02067739095452683</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1746709667.783365</v>
+        <v>1602628665.477337</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1344178509315728</v>
+        <v>0.1481853648487087</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03758346870301704</v>
+        <v>0.05048374802471176</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2219607997.445096</v>
+        <v>2136851906.828048</v>
       </c>
       <c r="F41" t="n">
-        <v>0.152280569672222</v>
+        <v>0.1489112400658253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03740293890151986</v>
+        <v>0.03772002547897015</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3965493284.257439</v>
+        <v>2943475438.779826</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1038020174565753</v>
+        <v>0.08722838523730227</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03686863735554746</v>
+        <v>0.04159956759062071</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2770371838.485233</v>
+        <v>2212451208.235789</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1429472756935338</v>
+        <v>0.1495120400802967</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0175354743054463</v>
+        <v>0.0229702090579458</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2236293426.74427</v>
+        <v>1731753745.659173</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08942947700638888</v>
+        <v>0.09112560910257476</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03438545128994942</v>
+        <v>0.02885792412354559</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1643907036.882774</v>
+        <v>1774275689.186743</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1203045881871811</v>
+        <v>0.1340910577525585</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05069534327870803</v>
+        <v>0.0499051280949472</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3526783018.647775</v>
+        <v>5205643364.273495</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1543469886423167</v>
+        <v>0.1653939213237801</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04580811177225172</v>
+        <v>0.04526642427417885</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3507804057.192358</v>
+        <v>5118748296.291955</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1678050061543055</v>
+        <v>0.1377634269611891</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04219997568005156</v>
+        <v>0.04941701441641456</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3026253198.826727</v>
+        <v>4423068921.53799</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1028995003000418</v>
+        <v>0.08857814553290951</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03251469080642792</v>
+        <v>0.03600729704843306</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1359118853.262114</v>
+        <v>1458456645.333809</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1655875549640362</v>
+        <v>0.1223667360713343</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03092906108551296</v>
+        <v>0.03432912048082942</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2860001278.189193</v>
+        <v>2915621270.18573</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1676168019929352</v>
+        <v>0.1554831727336841</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05156831711103255</v>
+        <v>0.04365622336229218</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>998797581.0614892</v>
+        <v>1226149536.938819</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1757470651414506</v>
+        <v>0.1383791209007721</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03966865891685912</v>
+        <v>0.03275267265137052</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4472552910.476113</v>
+        <v>4574078326.891945</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1253071524010692</v>
+        <v>0.1251044668368071</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06194938607029039</v>
+        <v>0.05239977687069465</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3008131697.725081</v>
+        <v>2542202180.380527</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1397675691145209</v>
+        <v>0.130780714800392</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02597180976659673</v>
+        <v>0.03541038891013974</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4431006605.075989</v>
+        <v>4136895747.630036</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1284527076945787</v>
+        <v>0.1209958144307389</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04453076134419909</v>
+        <v>0.04239668882760023</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3905352548.992383</v>
+        <v>3643271299.509664</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1777244559541621</v>
+        <v>0.1830955829942643</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02451851837900634</v>
+        <v>0.02030179397155878</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1492099271.676207</v>
+        <v>1422828982.918101</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1388762305349807</v>
+        <v>0.1146949368796057</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04529845327252852</v>
+        <v>0.04154283486904837</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4235441540.707176</v>
+        <v>4372286293.866535</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1430831662764683</v>
+        <v>0.1554329076337206</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02249321522576603</v>
+        <v>0.02161204845231963</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1611193991.804902</v>
+        <v>1766282771.90047</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1522200220323045</v>
+        <v>0.2023778871289336</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03934392031316615</v>
+        <v>0.02555386722076854</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4676600092.536683</v>
+        <v>3373616742.761436</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1042586580302591</v>
+        <v>0.08807419439902422</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04643318827204751</v>
+        <v>0.03435994284607663</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3257582924.741947</v>
+        <v>2949146663.818316</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1306579258005058</v>
+        <v>0.1704391870989485</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02389008137193198</v>
+        <v>0.025792962005169</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3069704756.289949</v>
+        <v>3374464953.3348</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1498086236635978</v>
+        <v>0.1187342534630438</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02753641689504479</v>
+        <v>0.02603978889710695</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1907274244.410527</v>
+        <v>1905651272.925283</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1567804057999805</v>
+        <v>0.1521696869349798</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03441311253068082</v>
+        <v>0.03702175170165427</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5618881574.055977</v>
+        <v>4763310905.122898</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08919189722442604</v>
+        <v>0.0704570119711225</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02890640464066282</v>
+        <v>0.03695705779779791</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3966641434.511872</v>
+        <v>4871962798.529672</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1841161737258909</v>
+        <v>0.1534315548379717</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02314978959883624</v>
+        <v>0.02632636267864474</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3985226802.000696</v>
+        <v>5157134096.388992</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1706331223069178</v>
+        <v>0.147575025815407</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03161376577096357</v>
+        <v>0.01984503164795521</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4850395036.908218</v>
+        <v>4422033510.461082</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1287088555741211</v>
+        <v>0.1300175475016551</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04506833543092165</v>
+        <v>0.04426355967452893</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2160374998.26478</v>
+        <v>2827378931.543737</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06916774939434604</v>
+        <v>0.09111645381825427</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03771266589867327</v>
+        <v>0.05095301151202622</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4616756305.473023</v>
+        <v>5579342831.778728</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1075353596447845</v>
+        <v>0.1218454152135137</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03716798489027968</v>
+        <v>0.04981283539127355</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2006221196.169956</v>
+        <v>2229524221.874424</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1292536199251835</v>
+        <v>0.1472471652125573</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03803386654160181</v>
+        <v>0.05677986817849989</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3219731844.700839</v>
+        <v>2310844017.060045</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0731082704637052</v>
+        <v>0.09257784902269341</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04676549377630221</v>
+        <v>0.04485085938260074</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5616571883.571888</v>
+        <v>3958760426.767479</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1612722621255087</v>
+        <v>0.1254705240474553</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02506909008409288</v>
+        <v>0.03220769038138864</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2114117508.269703</v>
+        <v>1539099457.904731</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08817788712573522</v>
+        <v>0.09345528157203745</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0414533298703885</v>
+        <v>0.04994388111875549</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3271202771.823011</v>
+        <v>3134845804.778939</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1000617066722839</v>
+        <v>0.1049447074592796</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04231348730478655</v>
+        <v>0.03909950013729823</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3591929482.025635</v>
+        <v>2583772567.472885</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1391714691402014</v>
+        <v>0.1275755874685822</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03052907069032347</v>
+        <v>0.02336517452428817</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2281550422.763227</v>
+        <v>1723241844.16921</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1183675967471149</v>
+        <v>0.1076277768856891</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02349092905393798</v>
+        <v>0.02972494378029758</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5079664196.719488</v>
+        <v>3971560659.17305</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09932313180619551</v>
+        <v>0.1168094864424997</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03030879156687652</v>
+        <v>0.0222472608497605</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1891253054.031843</v>
+        <v>2002052857.487434</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1517520459921494</v>
+        <v>0.1775796590749181</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0268108294856107</v>
+        <v>0.02061482075941373</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3697696008.328356</v>
+        <v>4545960400.55758</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1049775162707972</v>
+        <v>0.1093327905373435</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04467554681267495</v>
+        <v>0.05626101618882933</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1767044449.289074</v>
+        <v>1403336509.191849</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1729959731398416</v>
+        <v>0.1280662701397833</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03963399326857762</v>
+        <v>0.03691636540538095</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4029677021.22959</v>
+        <v>5499593724.025827</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1046349949602797</v>
+        <v>0.09614646529715568</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03518751918675445</v>
+        <v>0.0274422951049586</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4620491331.843696</v>
+        <v>4839260083.239709</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1238642573020364</v>
+        <v>0.1375375723820981</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02118138340797241</v>
+        <v>0.02830976007802054</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4362944912.244692</v>
+        <v>5695236176.668385</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1727641596211889</v>
+        <v>0.158918958903476</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02399341354445903</v>
+        <v>0.02813621271255006</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1724472406.515917</v>
+        <v>1923949878.505953</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1231896388834517</v>
+        <v>0.14159927355007</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03497850017831169</v>
+        <v>0.04552912877692294</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2389525610.15518</v>
+        <v>2022100210.247027</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07513717257037611</v>
+        <v>0.1060579729762309</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03377873063925318</v>
+        <v>0.04090796217419264</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2976098044.593137</v>
+        <v>3479569922.517145</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1521739242550472</v>
+        <v>0.1806292622286726</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05318931675416594</v>
+        <v>0.0344886738513032</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2297556099.882776</v>
+        <v>2547888619.265659</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1320223233750568</v>
+        <v>0.1201852297408421</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02723531553883328</v>
+        <v>0.0230486926949902</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1128090237.202202</v>
+        <v>1429205928.807017</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1763387663765496</v>
+        <v>0.1584542342217096</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02778323628888638</v>
+        <v>0.03817059771432731</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3478746589.33298</v>
+        <v>2677287507.614234</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1647621433351246</v>
+        <v>0.1433840779183811</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02619861311227427</v>
+        <v>0.03740334829093192</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2522858449.983869</v>
+        <v>2232553932.788981</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1096738295006401</v>
+        <v>0.1257480505213439</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04146403762268184</v>
+        <v>0.03528544419590866</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1801831003.631655</v>
+        <v>1802639125.021523</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1215095162201502</v>
+        <v>0.1155234647707572</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0499244149525143</v>
+        <v>0.04423382991938098</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1717489316.011618</v>
+        <v>1499555423.651953</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1202576488364133</v>
+        <v>0.1400311161494817</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05741581121664075</v>
+        <v>0.04715945593800271</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2568698708.476268</v>
+        <v>2152591951.764716</v>
       </c>
       <c r="F92" t="n">
-        <v>0.107529504213223</v>
+        <v>0.09710939037286312</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0449778821006847</v>
+        <v>0.03990731721328029</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3718593728.408522</v>
+        <v>4068344571.146183</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1130344771212525</v>
+        <v>0.09763693964857544</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05134605512578595</v>
+        <v>0.04527161352546692</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2187386983.918375</v>
+        <v>1859805935.225921</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1307809449337124</v>
+        <v>0.1056458306003006</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04245651911910481</v>
+        <v>0.0412192746239254</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3181075202.071815</v>
+        <v>2814643391.670833</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1278611689217575</v>
+        <v>0.135377069959814</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04208130223589662</v>
+        <v>0.04774752385065237</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1693262099.844501</v>
+        <v>1501172034.036253</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1217186657332446</v>
+        <v>0.1260089310569713</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02944568079927895</v>
+        <v>0.0456304755718307</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3450470574.90418</v>
+        <v>3886148730.713546</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1233386208418886</v>
+        <v>0.1419906674207266</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02201514202343718</v>
+        <v>0.02810050250198412</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3148689880.854802</v>
+        <v>3625618565.587108</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1112284034875734</v>
+        <v>0.1254815843217321</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02679224131063218</v>
+        <v>0.02442265797524175</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2626855449.212173</v>
+        <v>2387768076.357486</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09635152556331641</v>
+        <v>0.1082520936866796</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03279807160971913</v>
+        <v>0.03291877833852164</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3612339480.466078</v>
+        <v>4289242363.970529</v>
       </c>
       <c r="F100" t="n">
-        <v>0.132999755999641</v>
+        <v>0.1351596974320774</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01994128719370429</v>
+        <v>0.02176301582897357</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3364677662.871894</v>
+        <v>2961751900.399948</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1943946192500666</v>
+        <v>0.1430308311154458</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03855872765833265</v>
+        <v>0.04083561787687996</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_339.xlsx
+++ b/output/fit_clients/fit_round_339.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2334609505.62018</v>
+        <v>1681802211.241667</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0830678978202917</v>
+        <v>0.08748024742050409</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0301986457926161</v>
+        <v>0.0317641101270717</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2204738856.031466</v>
+        <v>2148690466.03735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1182854716029414</v>
+        <v>0.1390111004938598</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03192850098857218</v>
+        <v>0.0313371465083364</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3539343276.940156</v>
+        <v>4316942605.310313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1457089011509069</v>
+        <v>0.1184081077365633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02847145142258392</v>
+        <v>0.03608428385059818</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>176</v>
+      </c>
+      <c r="J4" t="n">
+        <v>338</v>
+      </c>
+      <c r="K4" t="n">
+        <v>65.43982024626051</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4011921533.298161</v>
+        <v>2645471906.419054</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07051412167699041</v>
+        <v>0.1003205777793959</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03810368440364035</v>
+        <v>0.03445478552417162</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>134</v>
+      </c>
+      <c r="J5" t="n">
+        <v>336</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2621872966.876762</v>
+        <v>2335471386.938642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1413700352872163</v>
+        <v>0.09393527887834324</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05474228910780547</v>
+        <v>0.03539982410717529</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2223029230.924602</v>
+        <v>2524643589.901977</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0805482184779668</v>
+        <v>0.08365853408485555</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04710073107265379</v>
+        <v>0.03792033737266282</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3220222951.837658</v>
+        <v>3715412493.500811</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1945790997046397</v>
+        <v>0.1464763818813509</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0253299672992176</v>
+        <v>0.02969043411370448</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2171689451.655943</v>
+        <v>1731690294.870739</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1216385434785682</v>
+        <v>0.1875389456466631</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03114578403916602</v>
+        <v>0.03544839500941854</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5533999375.75209</v>
+        <v>3576037493.743378</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2070406961884496</v>
+        <v>0.1779293162233194</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04712156527537628</v>
+        <v>0.05285494061713931</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>290</v>
+      </c>
+      <c r="J10" t="n">
+        <v>338</v>
+      </c>
+      <c r="K10" t="n">
+        <v>59.88227652227356</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3648588075.761231</v>
+        <v>3192368241.362026</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1205969607034702</v>
+        <v>0.1816861606496865</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04012244887495464</v>
+        <v>0.0329682595130036</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>139</v>
+      </c>
+      <c r="J11" t="n">
+        <v>338</v>
+      </c>
+      <c r="K11" t="n">
+        <v>54.24711543387878</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3242270491.151324</v>
+        <v>3084127721.194554</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1543040940235013</v>
+        <v>0.1303273294024024</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04822536914543807</v>
+        <v>0.03833267853640858</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4374898154.289593</v>
+        <v>5291436674.310967</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07186213334057122</v>
+        <v>0.08206255860241379</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02693081092712271</v>
+        <v>0.02598173577090167</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>176</v>
+      </c>
+      <c r="J13" t="n">
+        <v>339</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2816466756.384478</v>
+        <v>3581323057.325837</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1606885765515706</v>
+        <v>0.1510285238344194</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03003291008210117</v>
+        <v>0.04065247266103127</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>336</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1242423931.741711</v>
+        <v>1357834092.858873</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09623081715788419</v>
+        <v>0.07610210200729235</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03332376280875971</v>
+        <v>0.04075984645748597</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2848198049.975084</v>
+        <v>2047119282.200091</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1166157308121138</v>
+        <v>0.0915995785385022</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04788706695907714</v>
+        <v>0.04889314939782557</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4906796659.890834</v>
+        <v>3375210755.288779</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1417018112695268</v>
+        <v>0.1689295476588608</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03900657930339604</v>
+        <v>0.03328195118811374</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>160</v>
+      </c>
+      <c r="J17" t="n">
+        <v>338</v>
+      </c>
+      <c r="K17" t="n">
+        <v>52.98828933629216</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2740505367.851916</v>
+        <v>3531165464.528176</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1579450686710633</v>
+        <v>0.1777324856865496</v>
       </c>
       <c r="G18" t="n">
-        <v>0.027126148398711</v>
+        <v>0.02777159332958309</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>336</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1064359263.247112</v>
+        <v>1306874699.098561</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1333295173061224</v>
+        <v>0.1448913423925617</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01837592472293867</v>
+        <v>0.02050370575745935</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2400600569.026504</v>
+        <v>1816205390.829407</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1548995232289324</v>
+        <v>0.1136456322687856</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02049954359416073</v>
+        <v>0.02814722139637546</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2257459265.31048</v>
+        <v>1968399793.923968</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07845413474561078</v>
+        <v>0.07013846204963849</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0318495240090713</v>
+        <v>0.04348433669649408</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3391446926.461792</v>
+        <v>2600983979.107203</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1274658977690229</v>
+        <v>0.1087463550745628</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05316455730263967</v>
+        <v>0.04509093733582479</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>93</v>
+      </c>
+      <c r="J22" t="n">
+        <v>338</v>
+      </c>
+      <c r="K22" t="n">
+        <v>33.92367356824609</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1291489799.849019</v>
+        <v>1348134445.738834</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1163432913261464</v>
+        <v>0.1454529552714777</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03844975988908832</v>
+        <v>0.04921091429856371</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3226228349.658212</v>
+        <v>2581623515.802442</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1334269997766263</v>
+        <v>0.09943927666808748</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0371797983682231</v>
+        <v>0.02525415331490695</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" t="n">
+        <v>338</v>
+      </c>
+      <c r="K24" t="n">
+        <v>32.66835049980661</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1359773762.311117</v>
+        <v>1459830454.993615</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1100995784288174</v>
+        <v>0.09943502825417842</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01893247993007136</v>
+        <v>0.02305800678254811</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1149821163.045744</v>
+        <v>961368666.8038218</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1186133751532062</v>
+        <v>0.08050260092475052</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03866295218028004</v>
+        <v>0.02933102945270359</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4587373918.441496</v>
+        <v>3555461758.265549</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1286050026100744</v>
+        <v>0.127594404980907</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01880596242834738</v>
+        <v>0.02212147519697037</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>142</v>
+      </c>
+      <c r="J27" t="n">
+        <v>338</v>
+      </c>
+      <c r="K27" t="n">
+        <v>56.86850077704059</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2400884243.96496</v>
+        <v>3731483832.815227</v>
       </c>
       <c r="F28" t="n">
-        <v>0.150912763964111</v>
+        <v>0.1380983647106087</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04769721260904553</v>
+        <v>0.04839899409761771</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>73</v>
+      </c>
+      <c r="J28" t="n">
+        <v>339</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5473460282.286634</v>
+        <v>4137836435.108938</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1018061007387842</v>
+        <v>0.1005516354344728</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04220753249872494</v>
+        <v>0.04063689535027348</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>307</v>
+      </c>
+      <c r="J29" t="n">
+        <v>339</v>
+      </c>
+      <c r="K29" t="n">
+        <v>67.64942520120462</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2258343005.898493</v>
+        <v>1488200212.962883</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09218289723995866</v>
+        <v>0.08801165677442382</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0348222263902002</v>
+        <v>0.03922351615324782</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1130737686.571179</v>
+        <v>1059288719.891037</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06881048026283743</v>
+        <v>0.1054618382112571</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03761671106905729</v>
+        <v>0.0341530225168962</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1243540742.141323</v>
+        <v>1451991232.896174</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07426511758754734</v>
+        <v>0.08308910779661667</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03128100133585628</v>
+        <v>0.03222136224492601</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2919938528.777991</v>
+        <v>2803804187.30854</v>
       </c>
       <c r="F33" t="n">
-        <v>0.190390230686546</v>
+        <v>0.1549194134765375</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04399653234723178</v>
+        <v>0.0410303970436693</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1519052679.023659</v>
+        <v>1018492252.511176</v>
       </c>
       <c r="F34" t="n">
-        <v>0.12087648838227</v>
+        <v>0.08250129747916199</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02725940916593907</v>
+        <v>0.01855843670012983</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1214008051.099165</v>
+        <v>868542863.1252885</v>
       </c>
       <c r="F35" t="n">
-        <v>0.102973166394837</v>
+        <v>0.1086307545032844</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02811990445893582</v>
+        <v>0.03381088752355656</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2569227001.977861</v>
+        <v>2110445996.465514</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1491218188148956</v>
+        <v>0.144697389183529</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02773291345789683</v>
+        <v>0.02764701298334652</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2569702789.099102</v>
+        <v>2915373654.263751</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06760397071310997</v>
+        <v>0.08659769062578627</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04189401667337698</v>
+        <v>0.04183876970176913</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1690579882.698119</v>
+        <v>1494794533.209069</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09993272701207194</v>
+        <v>0.101136606136528</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03221949072277235</v>
+        <v>0.03163783445028366</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1863941103.160622</v>
+        <v>1379740068.780701</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1332539546892773</v>
+        <v>0.1225564514817671</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02067739095452683</v>
+        <v>0.02394882600657878</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1602628665.477337</v>
+        <v>1741699031.539247</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1481853648487087</v>
+        <v>0.1335923105600722</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05048374802471176</v>
+        <v>0.05087621884157547</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2136851906.828048</v>
+        <v>1888552547.866269</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1489112400658253</v>
+        <v>0.1591527852471232</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03772002547897015</v>
+        <v>0.02937632264513249</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1911,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2943475438.779826</v>
+        <v>3900328378.111848</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08722838523730227</v>
+        <v>0.1055048918909797</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04159956759062071</v>
+        <v>0.03781776636173149</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>146</v>
+      </c>
+      <c r="J42" t="n">
+        <v>339</v>
+      </c>
+      <c r="K42" t="n">
+        <v>74.66964771875512</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2212451208.235789</v>
+        <v>2307378113.008328</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1495120400802967</v>
+        <v>0.1319200226099429</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0229702090579458</v>
+        <v>0.01881627614020194</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1989,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1731753745.659173</v>
+        <v>1936357970.76549</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09112560910257476</v>
+        <v>0.06622120541161911</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02885792412354559</v>
+        <v>0.03181074948035829</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1774275689.186743</v>
+        <v>1782464862.236692</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1340910577525585</v>
+        <v>0.1181884733379759</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0499051280949472</v>
+        <v>0.05085108680996443</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2059,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5205643364.273495</v>
+        <v>4621161714.492969</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1653939213237801</v>
+        <v>0.1326276910953641</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04526642427417885</v>
+        <v>0.05762202410868535</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>203</v>
+      </c>
+      <c r="J46" t="n">
+        <v>339</v>
+      </c>
+      <c r="K46" t="n">
+        <v>69.15919819023634</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2090,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5118748296.291955</v>
+        <v>4052109430.290955</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1377634269611891</v>
+        <v>0.1449616632751078</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04941701441641456</v>
+        <v>0.05086349170458893</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>151</v>
+      </c>
+      <c r="J47" t="n">
+        <v>338</v>
+      </c>
+      <c r="K47" t="n">
+        <v>61.09693341365655</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2127,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4423068921.53799</v>
+        <v>3668703636.706182</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08857814553290951</v>
+        <v>0.09951134559523142</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03600729704843306</v>
+        <v>0.03283415304566432</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>168</v>
+      </c>
+      <c r="J48" t="n">
+        <v>337</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1458456645.333809</v>
+        <v>1571443150.095212</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1223667360713343</v>
+        <v>0.1806090454943165</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03432912048082942</v>
+        <v>0.03295294890516588</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2915621270.18573</v>
+        <v>3868078755.536094</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1554831727336841</v>
+        <v>0.1624119058687778</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04365622336229218</v>
+        <v>0.04914652976653894</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>111</v>
+      </c>
+      <c r="J50" t="n">
+        <v>339</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1226149536.938819</v>
+        <v>1113098336.602947</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1383791209007721</v>
+        <v>0.1363025471984263</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03275267265137052</v>
+        <v>0.03992574776944308</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2267,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4574078326.891945</v>
+        <v>5051146142.07101</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1251044668368071</v>
+        <v>0.1002405393441162</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05239977687069465</v>
+        <v>0.04015961880974039</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>203</v>
+      </c>
+      <c r="J52" t="n">
+        <v>339</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2542202180.380527</v>
+        <v>2411630648.421986</v>
       </c>
       <c r="F53" t="n">
-        <v>0.130780714800392</v>
+        <v>0.1263462059280937</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03541038891013974</v>
+        <v>0.03363881542968079</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>48</v>
+      </c>
+      <c r="J53" t="n">
+        <v>335</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4136895747.630036</v>
+        <v>3588959618.044247</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1209958144307389</v>
+        <v>0.105020605579094</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04239668882760023</v>
+        <v>0.04959626758717581</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>179</v>
+      </c>
+      <c r="J54" t="n">
+        <v>337</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3643271299.509664</v>
+        <v>4058431232.782553</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1830955829942643</v>
+        <v>0.1618274785979623</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02030179397155878</v>
+        <v>0.03022501592219931</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>161</v>
+      </c>
+      <c r="J55" t="n">
+        <v>339</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1422828982.918101</v>
+        <v>1400047178.813486</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1146949368796057</v>
+        <v>0.1442780040439349</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04154283486904837</v>
+        <v>0.04022873204694738</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4372286293.866535</v>
+        <v>4281564015.189744</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1554329076337206</v>
+        <v>0.1697505534025999</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02161204845231963</v>
+        <v>0.02117680816907319</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>138</v>
+      </c>
+      <c r="J57" t="n">
+        <v>339</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1766282771.90047</v>
+        <v>1403365862.15117</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2023778871289336</v>
+        <v>0.1713022705974171</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02555386722076854</v>
+        <v>0.03176283198908215</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3373616742.761436</v>
+        <v>4936700119.808018</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08807419439902422</v>
+        <v>0.07897128888137074</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03435994284607663</v>
+        <v>0.04308009439340026</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>163</v>
+      </c>
+      <c r="J59" t="n">
+        <v>339</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2553,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2949146663.818316</v>
+        <v>2349148501.12038</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1704391870989485</v>
+        <v>0.1321423160749315</v>
       </c>
       <c r="G60" t="n">
-        <v>0.025792962005169</v>
+        <v>0.02684466462440169</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>60</v>
+      </c>
+      <c r="J60" t="n">
+        <v>338</v>
+      </c>
+      <c r="K60" t="n">
+        <v>33.36232013348791</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3374464953.3348</v>
+        <v>2398293011.527174</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1187342534630438</v>
+        <v>0.111359022804051</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02603978889710695</v>
+        <v>0.02662509553229667</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1905651272.925283</v>
+        <v>1591509198.87442</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1521696869349798</v>
+        <v>0.1278653767804571</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03702175170165427</v>
+        <v>0.03312253492949058</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4763310905.122898</v>
+        <v>4584244195.868086</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0704570119711225</v>
+        <v>0.06618616507560821</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03695705779779791</v>
+        <v>0.04519934014428859</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>166</v>
+      </c>
+      <c r="J63" t="n">
+        <v>338</v>
+      </c>
+      <c r="K63" t="n">
+        <v>65.37391621925184</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4871962798.529672</v>
+        <v>4074515275.491503</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1534315548379717</v>
+        <v>0.125360697589033</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02632636267864474</v>
+        <v>0.0247110962889525</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>168</v>
+      </c>
+      <c r="J64" t="n">
+        <v>338</v>
+      </c>
+      <c r="K64" t="n">
+        <v>65.63722640743667</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2734,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5157134096.388992</v>
+        <v>4907895516.757083</v>
       </c>
       <c r="F65" t="n">
-        <v>0.147575025815407</v>
+        <v>0.1452607592031977</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01984503164795521</v>
+        <v>0.02583125292080651</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>263</v>
+      </c>
+      <c r="J65" t="n">
+        <v>338</v>
+      </c>
+      <c r="K65" t="n">
+        <v>67.63883664728866</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4422033510.461082</v>
+        <v>4864041023.468463</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1300175475016551</v>
+        <v>0.1378896255120431</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04426355967452893</v>
+        <v>0.04488978604146557</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>167</v>
+      </c>
+      <c r="J66" t="n">
+        <v>339</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2827378931.543737</v>
+        <v>3359906574.124053</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09111645381825427</v>
+        <v>0.07170885923018383</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05095301151202622</v>
+        <v>0.04929496803131091</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5579342831.778728</v>
+        <v>3784581217.938067</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1218454152135137</v>
+        <v>0.1489839418707554</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04981283539127355</v>
+        <v>0.03776880791892736</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>184</v>
+      </c>
+      <c r="J68" t="n">
+        <v>339</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2229524221.874424</v>
+        <v>2481919939.795324</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1472471652125573</v>
+        <v>0.1651889843993855</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05677986817849989</v>
+        <v>0.04896084148958796</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2310844017.060045</v>
+        <v>3686471429.637174</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09257784902269341</v>
+        <v>0.06311017957800037</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04485085938260074</v>
+        <v>0.0330892681988839</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3958760426.767479</v>
+        <v>3975918362.480552</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1254705240474553</v>
+        <v>0.1318372411531936</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03220769038138864</v>
+        <v>0.02916559877399099</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>249</v>
+      </c>
+      <c r="J71" t="n">
+        <v>339</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1539099457.904731</v>
+        <v>1442044474.24515</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09345528157203745</v>
+        <v>0.09613840159732766</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04994388111875549</v>
+        <v>0.05291289828421596</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3134845804.778939</v>
+        <v>2323373968.840574</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1049447074592796</v>
+        <v>0.0870252697391494</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03909950013729823</v>
+        <v>0.04454984737373496</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2583772567.472885</v>
+        <v>3894119500.276696</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1275755874685822</v>
+        <v>0.1341722260728632</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02336517452428817</v>
+        <v>0.02989343049060611</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>90</v>
+      </c>
+      <c r="J74" t="n">
+        <v>339</v>
+      </c>
+      <c r="K74" t="n">
+        <v>83.38349512308757</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1723241844.16921</v>
+        <v>1657252581.334183</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1076277768856891</v>
+        <v>0.1116133286833306</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02972494378029758</v>
+        <v>0.03726785797812562</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3971560659.17305</v>
+        <v>4879832720.895761</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1168094864424997</v>
+        <v>0.1192086258578298</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0222472608497605</v>
+        <v>0.02957722816840104</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>160</v>
+      </c>
+      <c r="J76" t="n">
+        <v>338</v>
+      </c>
+      <c r="K76" t="n">
+        <v>65.58774318630556</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2002052857.487434</v>
+        <v>1520990166.671657</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1775796590749181</v>
+        <v>0.1834662392503956</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02061482075941373</v>
+        <v>0.02764076541345726</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3195,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4545960400.55758</v>
+        <v>3824812373.956744</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1093327905373435</v>
+        <v>0.08484633733389429</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05626101618882933</v>
+        <v>0.04392870006895909</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>167</v>
+      </c>
+      <c r="J78" t="n">
+        <v>339</v>
+      </c>
+      <c r="K78" t="n">
+        <v>70.61949345145081</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1403336509.191849</v>
+        <v>1747467288.928074</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1280662701397833</v>
+        <v>0.1675160522359854</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03691636540538095</v>
+        <v>0.03567042529477191</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5499593724.025827</v>
+        <v>3457994780.79671</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09614646529715568</v>
+        <v>0.09416599064797443</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0274422951049586</v>
+        <v>0.02698336907520828</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>166</v>
+      </c>
+      <c r="J80" t="n">
+        <v>338</v>
+      </c>
+      <c r="K80" t="n">
+        <v>42.72277700184533</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3304,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4839260083.239709</v>
+        <v>4558314463.091024</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1375375723820981</v>
+        <v>0.1331534588548262</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02830976007802054</v>
+        <v>0.02728403007198779</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>156</v>
+      </c>
+      <c r="J81" t="n">
+        <v>339</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5695236176.668385</v>
+        <v>4586499453.303229</v>
       </c>
       <c r="F82" t="n">
-        <v>0.158918958903476</v>
+        <v>0.1617731069074677</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02813621271255006</v>
+        <v>0.02531452179575728</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>242</v>
+      </c>
+      <c r="J82" t="n">
+        <v>339</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1923949878.505953</v>
+        <v>2300480227.110402</v>
       </c>
       <c r="F83" t="n">
-        <v>0.14159927355007</v>
+        <v>0.1210499528856111</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04552912877692294</v>
+        <v>0.04030468847577861</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2022100210.247027</v>
+        <v>1664130720.622085</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1060579729762309</v>
+        <v>0.08795880139311245</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04090796217419264</v>
+        <v>0.03621343282219529</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3479569922.517145</v>
+        <v>2698360309.729109</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1806292622286726</v>
+        <v>0.1410507108644418</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0344886738513032</v>
+        <v>0.0500339501185464</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>44</v>
+      </c>
+      <c r="J85" t="n">
+        <v>332</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2547888619.265659</v>
+        <v>2100991442.309901</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1201852297408421</v>
+        <v>0.1284770410536335</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0230486926949902</v>
+        <v>0.01918051269604689</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1429205928.807017</v>
+        <v>1359761620.957209</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1584542342217096</v>
+        <v>0.1341676077599091</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03817059771432731</v>
+        <v>0.03955691077844238</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2677287507.614234</v>
+        <v>2774784093.245568</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1433840779183811</v>
+        <v>0.1318743200665345</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03740334829093192</v>
+        <v>0.02973106078742184</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2232553932.788981</v>
+        <v>2510727452.35572</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1257480505213439</v>
+        <v>0.09704356891128235</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03528544419590866</v>
+        <v>0.03137527506648277</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1802639125.021523</v>
+        <v>1437104117.213742</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1155234647707572</v>
+        <v>0.08870726159339257</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04423382991938098</v>
+        <v>0.0423807903064521</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1499555423.651953</v>
+        <v>1569200447.109613</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1400311161494817</v>
+        <v>0.120061796042459</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04715945593800271</v>
+        <v>0.06056900785344355</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2152591951.764716</v>
+        <v>2008507208.341941</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09710939037286312</v>
+        <v>0.07172739709534788</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03990731721328029</v>
+        <v>0.03256910934948808</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4068344571.146183</v>
+        <v>4788861267.696877</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09763693964857544</v>
+        <v>0.1240859755946818</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04527161352546692</v>
+        <v>0.0384056070278796</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>155</v>
+      </c>
+      <c r="J93" t="n">
+        <v>339</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1859805935.225921</v>
+        <v>2527993726.635452</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1056458306003006</v>
+        <v>0.1286386539080354</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0412192746239254</v>
+        <v>0.04057480795758798</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2814643391.670833</v>
+        <v>2152275054.970267</v>
       </c>
       <c r="F95" t="n">
-        <v>0.135377069959814</v>
+        <v>0.09815351798768235</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04774752385065237</v>
+        <v>0.04194993076844782</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1501172034.036253</v>
+        <v>2283723346.926281</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1260089310569713</v>
+        <v>0.09960325318103543</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0456304755718307</v>
+        <v>0.03405748298004668</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3886148730.713546</v>
+        <v>4442792922.350989</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1419906674207266</v>
+        <v>0.1448613931724763</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02810050250198412</v>
+        <v>0.01982206191163027</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>174</v>
+      </c>
+      <c r="J97" t="n">
+        <v>339</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3625618565.587108</v>
+        <v>3072423090.093284</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1254815843217321</v>
+        <v>0.1206702129337757</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02442265797524175</v>
+        <v>0.02771181182195813</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>85</v>
+      </c>
+      <c r="J98" t="n">
+        <v>338</v>
+      </c>
+      <c r="K98" t="n">
+        <v>46.78617853992499</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2387768076.357486</v>
+        <v>2312572697.267298</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1082520936866796</v>
+        <v>0.1424345558805494</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03291877833852164</v>
+        <v>0.0297421923565969</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4289242363.970529</v>
+        <v>4372979713.119767</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1351596974320774</v>
+        <v>0.1722638719710225</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02176301582897357</v>
+        <v>0.02636656798232668</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>152</v>
+      </c>
+      <c r="J100" t="n">
+        <v>339</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2961751900.399948</v>
+        <v>2214582308.975025</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1430308311154458</v>
+        <v>0.1481531906664217</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04083561787687996</v>
+        <v>0.03673112757665158</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>331</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
